--- a/Resource/excel/K-框架-全局常量-(框架使用,请勿修改).xlsx
+++ b/Resource/excel/K-框架-全局常量-(框架使用,请勿修改).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F42" authorId="1" shapeId="0">
+    <comment ref="F41" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>配置说明</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>playernamelength</t>
-  </si>
-  <si>
-    <t>签到时间</t>
-  </si>
-  <si>
-    <t>signinresettime</t>
   </si>
   <si>
     <t>聊天的时间间隔(单位:毫秒)</t>
@@ -736,11 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,7 +762,7 @@
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
@@ -851,7 +845,7 @@
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>12</v>
@@ -867,27 +861,21 @@
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="16">
-        <v>2000</v>
-      </c>
+      <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="10"/>
     </row>
@@ -931,7 +919,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
@@ -955,7 +943,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
@@ -971,7 +959,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
@@ -1035,13 +1023,13 @@
       <c r="E25" s="16"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="10"/>
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
@@ -1092,7 +1080,7 @@
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="19"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -1131,21 +1119,21 @@
       <c r="E37" s="18"/>
       <c r="F37" s="20"/>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
+    <row r="38" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="22"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
@@ -1156,12 +1144,10 @@
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="24"/>
@@ -1224,9 +1210,6 @@
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -1234,9 +1217,6 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F54" s="25"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F55" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
